--- a/src/main/resources/static/test_content.xlsx
+++ b/src/main/resources/static/test_content.xlsx
@@ -1243,10 +1243,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1308,21 +1308,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1336,10 +1330,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1351,19 +1375,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1376,10 +1391,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1399,7 +1414,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1412,8 +1442,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1427,37 +1458,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
@@ -1474,19 +1474,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1498,7 +1582,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1510,151 +1642,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1712,7 +1712,81 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1732,232 +1806,158 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2038,9 +2038,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2378,8 +2375,8 @@
   <sheetPr/>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -2432,8 +2429,11 @@
       <c r="G2" s="25">
         <v>2</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="35"/>
+      <c r="H2" s="26">
+        <f>IF(OR(G2="A",G2="a",G2=1),8,IF(OR(G2="B",G2="b",G2=2),4,IF(OR(G2="C",G2="c",G2=3),2,IF(OR(G2="D",G2="d",G2=4),1,0))))</f>
+        <v>4</v>
+      </c>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="48" spans="1:9">
       <c r="A3" s="1">
@@ -2457,8 +2457,11 @@
       <c r="G3" s="25">
         <v>1</v>
       </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="35"/>
+      <c r="H3" s="26">
+        <f t="shared" ref="H3:H17" si="0">IF(OR(G3="A",G3="a",G3=1),8,IF(OR(G3="B",G3="b",G3=2),4,IF(OR(G3="C",G3="c",G3=3),2,IF(OR(G3="D",G3="d",G3=4),1,0))))</f>
+        <v>8</v>
+      </c>
+      <c r="I3" s="34"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="84" spans="1:9">
       <c r="A4" s="1">
@@ -2482,8 +2485,11 @@
       <c r="G4" s="25">
         <v>3</v>
       </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="35"/>
+      <c r="H4" s="26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I4" s="34"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="36" spans="1:9">
       <c r="A5" s="1">
@@ -2507,8 +2513,11 @@
       <c r="G5" s="25">
         <v>1</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="35"/>
+      <c r="H5" s="26">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I5" s="34"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="60" spans="1:9">
       <c r="A6" s="1">
@@ -2526,14 +2535,17 @@
       <c r="E6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="28" t="s">
         <v>31</v>
       </c>
       <c r="G6" s="25">
         <v>3</v>
       </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="35"/>
+      <c r="H6" s="26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I6" s="34"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="120" spans="1:9">
       <c r="A7" s="1">
@@ -2551,14 +2563,17 @@
       <c r="E7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="29" t="s">
         <v>36</v>
       </c>
       <c r="G7" s="25">
         <v>1</v>
       </c>
-      <c r="H7" s="26"/>
-      <c r="I7" s="35"/>
+      <c r="H7" s="26">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I7" s="34"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="84" spans="1:8">
       <c r="A8" s="1">
@@ -2579,10 +2594,13 @@
       <c r="F8" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="30">
         <v>1</v>
       </c>
-      <c r="H8" s="28"/>
+      <c r="H8" s="26">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="48" spans="1:8">
       <c r="A9" s="1">
@@ -2603,10 +2621,13 @@
       <c r="F9" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="30">
         <v>1</v>
       </c>
-      <c r="H9" s="28"/>
+      <c r="H9" s="26">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="72" spans="1:8">
       <c r="A10" s="1">
@@ -2627,10 +2648,13 @@
       <c r="F10" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="30">
         <v>2</v>
       </c>
-      <c r="H10" s="28"/>
+      <c r="H10" s="26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="72" spans="1:8">
       <c r="A11" s="1">
@@ -2648,13 +2672,16 @@
       <c r="E11" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="30">
         <v>3</v>
       </c>
-      <c r="H11" s="28"/>
+      <c r="H11" s="26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="72" spans="1:8">
       <c r="A12" s="1">
@@ -2678,7 +2705,10 @@
       <c r="G12" s="20">
         <v>1</v>
       </c>
-      <c r="H12" s="28"/>
+      <c r="H12" s="26">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="60" spans="1:8">
       <c r="A13" s="1">
@@ -2699,10 +2729,13 @@
       <c r="F13" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="32">
         <v>2</v>
       </c>
-      <c r="H13" s="28"/>
+      <c r="H13" s="26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="48" spans="1:8">
       <c r="A14" s="1">
@@ -2723,10 +2756,13 @@
       <c r="F14" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="34">
+      <c r="G14" s="33">
         <v>3</v>
       </c>
-      <c r="H14" s="28"/>
+      <c r="H14" s="26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="60" spans="1:8">
       <c r="A15" s="1">
@@ -2747,10 +2783,13 @@
       <c r="F15" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="32">
         <v>3</v>
       </c>
-      <c r="H15" s="28"/>
+      <c r="H15" s="26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="48" spans="1:8">
       <c r="A16" s="1">
@@ -2771,14 +2810,21 @@
       <c r="F16" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="32">
         <v>1</v>
       </c>
-      <c r="H16" s="28"/>
+      <c r="H16" s="26">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>16</v>
+      </c>
+      <c r="H17" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:1">

--- a/src/main/resources/static/test_content.xlsx
+++ b/src/main/resources/static/test_content.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
   <si>
     <t>code</t>
   </si>
@@ -37,6 +37,9 @@
     <t>answerkey</t>
   </si>
   <si>
+    <t>mapped by G column ，use for system</t>
+  </si>
+  <si>
     <t>以下哪个不是Linux的优点？</t>
   </si>
   <si>
@@ -82,6 +85,9 @@
   </si>
   <si>
     <t>/root/steve/</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
   <si>
     <t>root执行了ls -l 之后，看到了以下内容：
@@ -153,6 +159,9 @@
     </r>
   </si>
   <si>
+    <t>c</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -221,6 +230,9 @@
     <t>mv file1 file2</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>John是一个Linux管理员，他打算将/home/steve/myfile文件的权限修改，执行了一个chmod 666 /home/steve/myfile命令，执行之后的结果，分析不正确的是？</t>
   </si>
   <si>
@@ -234,6 +246,9 @@
   </si>
   <si>
     <t>steve用户对这个文件有读写权限</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <r>
@@ -1243,10 +1258,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1308,7 +1323,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1323,30 +1345,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1356,6 +1356,13 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1375,10 +1382,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1398,9 +1406,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1421,15 +1429,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1443,16 +1444,30 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1465,7 +1480,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1474,187 +1489,205 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1712,17 +1745,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1751,17 +1790,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1783,11 +1818,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1812,247 +1845,259 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2375,17 +2420,18 @@
   <sheetPr/>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
+    <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="7" width="25.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -2400,455 +2446,488 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="12" spans="1:9">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="25">
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="28">
         <v>2</v>
       </c>
-      <c r="H2" s="26">
+      <c r="H2" s="29">
         <f>IF(OR(G2="A",G2="a",G2=1),8,IF(OR(G2="B",G2="b",G2=2),4,IF(OR(G2="C",G2="c",G2=3),2,IF(OR(G2="D",G2="d",G2=4),1,0))))</f>
         <v>4</v>
       </c>
-      <c r="I2" s="34"/>
+      <c r="I2" s="38"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="48" spans="1:9">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="E3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="25">
-        <v>1</v>
-      </c>
-      <c r="H3" s="26">
-        <f t="shared" ref="H3:H17" si="0">IF(OR(G3="A",G3="a",G3=1),8,IF(OR(G3="B",G3="b",G3=2),4,IF(OR(G3="C",G3="c",G3=3),2,IF(OR(G3="D",G3="d",G3=4),1,0))))</f>
+      <c r="F3" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="29">
+        <f>IF(OR(G3="A",G3="a",G3=1),8,IF(OR(G3="B",G3="b",G3=2),4,IF(OR(G3="C",G3="c",G3=3),2,IF(OR(G3="D",G3="d",G3=4),1,0))))</f>
         <v>8</v>
       </c>
-      <c r="I3" s="34"/>
+      <c r="I3" s="38"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="84" spans="1:9">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="D4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="25">
-        <v>3</v>
-      </c>
-      <c r="H4" s="26">
+      <c r="E4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="29">
+        <f>IF(OR(G4="A",G4="a",G4=1),8,IF(OR(G4="B",G4="b",G4=2),4,IF(OR(G4="C",G4="c",G4=3),2,IF(OR(G4="D",G4="d",G4=4),1,0))))</f>
+        <v>2</v>
+      </c>
+      <c r="I4" s="38"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="36" spans="1:9">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="29">
+        <f t="shared" ref="H3:H17" si="0">IF(OR(G5="A",G5="a",G5=1),8,IF(OR(G5="B",G5="b",G5=2),4,IF(OR(G5="C",G5="c",G5=3),2,IF(OR(G5="D",G5="d",G5=4),1,0))))</f>
+        <v>8</v>
+      </c>
+      <c r="I5" s="38"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="60" spans="1:9">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="29">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I4" s="34"/>
+      <c r="I6" s="38"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="36" spans="1:9">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="25">
+    <row r="7" s="1" customFormat="1" ht="120" spans="1:9">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="28">
         <v>1</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H7" s="29">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I5" s="34"/>
+      <c r="I7" s="38"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="60" spans="1:9">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="25">
+    <row r="8" s="1" customFormat="1" ht="84" spans="1:8">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="33">
+        <v>1</v>
+      </c>
+      <c r="H8" s="29">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="48" spans="1:8">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="33">
+        <v>1</v>
+      </c>
+      <c r="H9" s="29">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="72" spans="1:8">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="33">
+        <v>2</v>
+      </c>
+      <c r="H10" s="29">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="72" spans="1:8">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="33">
         <v>3</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H11" s="29">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I6" s="34"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="120" spans="1:9">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="25">
+    <row r="12" s="1" customFormat="1" ht="72" spans="1:8">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="33">
         <v>1</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H12" s="29">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I7" s="34"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="84" spans="1:8">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="30">
+    <row r="13" s="1" customFormat="1" ht="60" spans="1:8">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="35">
+        <v>2</v>
+      </c>
+      <c r="H13" s="29">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="48" spans="1:8">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="36">
+        <v>3</v>
+      </c>
+      <c r="H14" s="29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="60" spans="1:8">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="35">
+        <v>3</v>
+      </c>
+      <c r="H15" s="29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="48" spans="1:8">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="35">
         <v>1</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H16" s="29">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="48" spans="1:8">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="30">
-        <v>1</v>
-      </c>
-      <c r="H9" s="26">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="72" spans="1:8">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="30">
-        <v>2</v>
-      </c>
-      <c r="H10" s="26">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="72" spans="1:8">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="30">
-        <v>3</v>
-      </c>
-      <c r="H11" s="26">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="72" spans="1:8">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="20">
-        <v>1</v>
-      </c>
-      <c r="H12" s="26">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="60" spans="1:8">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="32">
-        <v>2</v>
-      </c>
-      <c r="H13" s="26">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="48" spans="1:8">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="33">
-        <v>3</v>
-      </c>
-      <c r="H14" s="26">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="60" spans="1:8">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" s="32">
-        <v>3</v>
-      </c>
-      <c r="H15" s="26">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="48" spans="1:8">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="G16" s="32">
-        <v>1</v>
-      </c>
-      <c r="H16" s="26">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="1">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="H17" s="26">
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1">
+    <row r="18" spans="1:7">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="37"/>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1">
+    <row r="19" spans="1:7">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="37"/>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1">
+    <row r="20" spans="1:7">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="37"/>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1">
+    <row r="21" spans="1:7">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="37"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="1">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
     </row>

--- a/src/main/resources/static/test_content.xlsx
+++ b/src/main/resources/static/test_content.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
   <si>
     <t>code</t>
   </si>
   <si>
-    <t>title</t>
+    <t>question_title</t>
   </si>
   <si>
     <t>optionA</t>
@@ -34,10 +34,10 @@
     <t>optionD</t>
   </si>
   <si>
-    <t>answerkey</t>
-  </si>
-  <si>
-    <t>mapped by G column ，use for system</t>
+    <t>standrad/correct answerkey</t>
+  </si>
+  <si>
+    <t>mapped by G column ，use for system , better not modify</t>
   </si>
   <si>
     <t>以下哪个不是Linux的优点？</t>
@@ -1252,6 +1252,12 @@
   <si>
     <t>grep "Mobile[^]"</t>
   </si>
+  <si>
+    <t>Tip: the yellow area should be replaced by you, include currect Answers ,regards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tip:here you can use ABCD abcd or 1234 </t>
+  </si>
 </sst>
 </file>
 
@@ -1259,11 +1265,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1308,6 +1314,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1323,7 +1336,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1345,8 +1358,22 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1360,7 +1387,77 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1376,91 +1473,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1495,13 +1508,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.05"/>
+        <fgColor rgb="FFE4D532"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.9"/>
+        <fgColor rgb="FFE4D532"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1513,19 +1658,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1537,157 +1694,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1745,8 +1758,56 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1768,8 +1829,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1789,204 +1852,154 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2070,34 +2083,34 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2156,6 +2169,11 @@
     <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <mruColors>
+      <color rgb="00E4D532"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -2418,16 +2436,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="7" width="25.5833333333333" customWidth="1"/>
+    <col min="2" max="6" width="25.5833333333333" customWidth="1"/>
+    <col min="7" max="7" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2446,7 +2465,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="29" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -2475,10 +2494,10 @@
       <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="30">
         <v>2</v>
       </c>
-      <c r="H2" s="29">
+      <c r="H2" s="31">
         <f>IF(OR(G2="A",G2="a",G2=1),8,IF(OR(G2="B",G2="b",G2=2),4,IF(OR(G2="C",G2="c",G2=3),2,IF(OR(G2="D",G2="d",G2=4),1,0))))</f>
         <v>4</v>
       </c>
@@ -2500,13 +2519,13 @@
       <c r="E3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="31">
         <f>IF(OR(G3="A",G3="a",G3=1),8,IF(OR(G3="B",G3="b",G3=2),4,IF(OR(G3="C",G3="c",G3=3),2,IF(OR(G3="D",G3="d",G3=4),1,0))))</f>
         <v>8</v>
       </c>
@@ -2531,10 +2550,10 @@
       <c r="F4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="31">
         <f>IF(OR(G4="A",G4="a",G4=1),8,IF(OR(G4="B",G4="b",G4=2),4,IF(OR(G4="C",G4="c",G4=3),2,IF(OR(G4="D",G4="d",G4=4),1,0))))</f>
         <v>2</v>
       </c>
@@ -2559,10 +2578,10 @@
       <c r="F5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="31">
         <f t="shared" ref="H3:H17" si="0">IF(OR(G5="A",G5="a",G5=1),8,IF(OR(G5="B",G5="b",G5=2),4,IF(OR(G5="C",G5="c",G5=3),2,IF(OR(G5="D",G5="d",G5=4),1,0))))</f>
         <v>8</v>
       </c>
@@ -2584,13 +2603,13 @@
       <c r="E6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="31">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -2612,13 +2631,13 @@
       <c r="E7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="30">
         <v>1</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="31">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -2643,10 +2662,10 @@
       <c r="F8" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="22">
         <v>1</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="31">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -2670,10 +2689,10 @@
       <c r="F9" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="22">
         <v>1</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="31">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -2697,10 +2716,10 @@
       <c r="F10" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="22">
         <v>2</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="31">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -2721,13 +2740,13 @@
       <c r="E11" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="22">
         <v>3</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="31">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -2751,10 +2770,10 @@
       <c r="F12" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="22">
         <v>1</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="31">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -2778,10 +2797,10 @@
       <c r="F13" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G13" s="36">
         <v>2</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" s="31">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -2805,10 +2824,10 @@
       <c r="F14" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="37">
         <v>3</v>
       </c>
-      <c r="H14" s="29">
+      <c r="H14" s="31">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -2832,10 +2851,10 @@
       <c r="F15" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="G15" s="35">
+      <c r="G15" s="36">
         <v>3</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H15" s="31">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -2859,10 +2878,10 @@
       <c r="F16" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="G16" s="35">
+      <c r="G16" s="36">
         <v>1</v>
       </c>
-      <c r="H16" s="29">
+      <c r="H16" s="31">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -2876,24 +2895,32 @@
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="29">
+      <c r="G17" s="26"/>
+      <c r="H17" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="26"/>
+      <c r="B18" s="27" t="s">
+        <v>87</v>
+      </c>
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
-      <c r="G18" s="37"/>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="31">
+        <f t="shared" ref="H18:H51" si="1">IF(OR(G18="A",G18="a",G18=1),8,IF(OR(G18="B",G18="b",G18=2),4,IF(OR(G18="C",G18="c",G18=3),2,IF(OR(G18="D",G18="d",G18=4),1,0))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2902,9 +2929,13 @@
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
       <c r="F19" s="26"/>
-      <c r="G19" s="37"/>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19" s="26"/>
+      <c r="H19" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2913,9 +2944,13 @@
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
-      <c r="G20" s="37"/>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G20" s="26"/>
+      <c r="H20" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2924,11 +2959,460 @@
       <c r="D21" s="26"/>
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
-      <c r="G21" s="37"/>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="G21" s="26"/>
+      <c r="H21" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="3">
         <v>21</v>
+      </c>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
